--- a/Unidad 1/Talleres/G3_Matriz_IREB.xlsx
+++ b/Unidad 1/Talleres/G3_Matriz_IREB.xlsx
@@ -4,14 +4,18 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Matriz Ckeck LIst" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="MODELO LISTA DE COMPROBACION - " sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="RECOMENDACIONES - CU001.5" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="RF9 MinGO - Ver historial de pa" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="RF4 MinGo - Enlazar clase" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="RF10 MinGo - Descargar contenid" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="RECOMENDACIONES - RF4 MinGo - E" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="RECOMENDACIONES - RF9 MinGO" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="RECOMENDACIONES - RF10 MinGo - " sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="OmLQAs2B2j+MJnwFQ3X47jsfWGOIOyyVHpDjn543Dy8="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="ErKN41YkYqMVeFQyzKUv3wuvA0WAJvSYia3QLKW/4qo="/>
     </ext>
   </extLst>
 </workbook>
@@ -147,7 +151,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mh2ctklcfGpcRJ+E370qT3UPWv0oQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhHpyV4NleHky32Mz5k02bqUaAsvw=="/>
     </ext>
   </extLst>
 </comments>
@@ -234,14 +238,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mi7Hw/PWF1umS3YEtxp3S0MBoA+7Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mh/utl44J5Oj9f2bBn0ZJ4FwD6qIw=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="88">
   <si>
     <t>MATRIZ PARA COMPROBACIÓN REQUERIMIENTOS DE CALIDAD DE PROYECTO ACADEMICO</t>
   </si>
@@ -272,7 +276,7 @@
     <t>RF9 MinGO - Ver historial de palabras aprendidas</t>
   </si>
   <si>
-    <t>CU0010 Descargar Contenido</t>
+    <t>RF10 MinGO - Descargar contenido del sistema</t>
   </si>
   <si>
     <t>Agreed</t>
@@ -297,13 +301,14 @@
     <t>1. Redacción con lenguaje claro y poco técnico.                                                                                 2. El tutor y el equipo tienen un solo significado con el requisito.</t>
   </si>
   <si>
+    <t>1. Redación de requisito en lenguaje claro y poco tecnico.
+2. El diseño del prototipo de interfece grafica por otro equipo de desarollo, esta acorde a la idea principal</t>
+  </si>
+  <si>
     <t>Valid and up-to date</t>
   </si>
   <si>
     <t xml:space="preserve">1. Toda nuevo cambio hecho despues de la revisión con el stekeholder y el tutor, se ha incorporado en el documento final. </t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>Correct</t>
@@ -319,7 +324,17 @@
  </t>
   </si>
   <si>
+    <t xml:space="preserve">1. Documentación basada con el modelo del diagrama de casos de uso, donde se valida que cada requisitos tenga su unico propósito                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Documentación basada con el modelo del diagrama de casos de uso.                                           2. Glosario de definiciones, acrónimos y abreviaturas en la documentación final.
+ </t>
+  </si>
+  <si>
     <t>Verifiable</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>1. Requisito Medible                                                           2.  Falta Casos de Prueba</t>
@@ -352,11 +367,12 @@
   </si>
   <si>
     <t xml:space="preserve">1. Especificación de requisito funcional
-2. Entrevista con Staeholder
+2. Entrevista con Stakeholder
 </t>
   </si>
   <si>
-    <t>Sistema De Gestión De Crianza De Conejos (Hoptolt)</t>
+    <t>1. Especificación de requisito funcional clara o consisa
+2. Entrevista con Stakeholder</t>
   </si>
   <si>
     <t>FECHA:</t>
@@ -365,13 +381,10 @@
     <t>AUTOR:</t>
   </si>
   <si>
-    <t xml:space="preserve">Darwin Panchez, José Proaño, Cristian Robalino </t>
+    <t>Carlos Ñato, Juan Granda, David Cepeda</t>
   </si>
   <si>
     <t>REQUERIMIENTOS EVALUADOS :</t>
-  </si>
-  <si>
-    <t>CU001.3 Gestionar Datos de conejos</t>
   </si>
   <si>
     <t>CONTENIDO</t>
@@ -407,7 +420,7 @@
     <t>Que tan facil es devolverse a los requerimientos?</t>
   </si>
   <si>
-    <t xml:space="preserve"> Los requerimientos reflejan las necesidades y deseos del cliente?</t>
+    <t>Los requerimientos reflejan las necesidades y deseos del cliente?</t>
   </si>
   <si>
     <t>No hay contradicciones entre los requerimientos?</t>
@@ -461,41 +474,62 @@
     <t xml:space="preserve">CONTENIDO </t>
   </si>
   <si>
+    <t>RF4 MinGo - Enlazar clase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Los requerimientos reflejan las necesidades y deseos del cliente?</t>
+  </si>
+  <si>
+    <t>RF10 MinGo - Descargar contenido del sistema</t>
+  </si>
+  <si>
     <t>PREGUNTA</t>
   </si>
   <si>
     <t>RECOMENDACIÓN</t>
   </si>
   <si>
-    <t>¿Se ha incorporado los cambios sugeridos por el tutor o el cliente?</t>
+    <t>¿Se ha realizado las actualizaciones de los cambio de el SRS impartidas por el tutor?</t>
   </si>
   <si>
-    <t>Se recomienda establecer un proceso formal de gestión de cambios que incluya el registro, revisión e incorporación de cada sugerencia recibida por parte del tutor o cliente, asegurando que los requisitos estén siempre actualizados, reflejen las expectativas reales y eviten ambigüedades o malentendidos en etapas posteriores del desarrollo.</t>
+    <t xml:space="preserve">Se recomienda implementar los cambios sugeridos por el tutor o jefe que exponga el problema del documento o parates faltantes durante la revisión que se realiza con el tutor. </t>
   </si>
   <si>
-    <t>¿Se mantiene la coherencia con otros requisitos del sistema y utiliza términos o definiciones de forma uniforme a lo largo del documento?</t>
+    <t>¿El proyecto puede ser implementado y  desarollado  dentro de la planificación?</t>
   </si>
   <si>
-    <t>Aunque el requisito mantiene coherencia con los demás y utiliza los términos de forma uniforme, se recomienda revisar la redacción para eliminar palabras redundantes que no aportan valor, donde una redacción más concisa mejora la claridad del requisito.</t>
+    <t>El requisito se encuentra bien especificado, sin embargo aun no e puede identificar si dentro de las fases del ciclo de desarollo se esta haciendo segun lo planeado.</t>
   </si>
   <si>
-    <t>¿Se han definido casos de prueba que permitan verificar, de manera objetiva y medible, el cumplimiento del requisito?</t>
+    <t>¿El requerimiento esta acorde con el diagrama de casos de uso?</t>
   </si>
   <si>
-    <t>Se recomienda elaborar casos de prueba específicos para cada requisito, de forma que su cumplimiento pueda ser verificado objetivamente, permitiendo validar que el sistema cumple con lo solicitado y reducirá el riesgo de errores o malentendidos durante el desarrollo y las pruebas.</t>
+    <t>Se recomienda redactar los requisitios funcionales acorde al diagrama de casos de uso que se realizaron posteriormente con la persona interesada en el proyecto.</t>
   </si>
   <si>
-    <t>¿Todos los requerimientos  han sido acordados con todos los interesados?</t>
+    <t>¿Cuál es el estado de los criterios de aceptación y los casos de prueba del proyecto?</t>
   </si>
   <si>
-    <t>Se recomienda realizar sesiones de validación y consenso con todos los interesados clave antes de cerrar la especificación de requerimientos, esto asegurará que los requerimientos reflejen las necesidades puntuales.</t>
+    <t>Por ahora, el proyecto se encuentra en la fase de documentación. Dado que aún no existe un software funcional, no es posible ejecutar pruebas para verificar la viabilidad del mismo.</t>
+  </si>
+  <si>
+    <t>¿El proyecto se está implementando y desarrollando según la planificación establecida?</t>
+  </si>
+  <si>
+    <t>Si bien el requisito se encuentra bien especificado, el proyecto aún está en la etapa de documentación. Por lo tanto, todavía no se puede determinar si las fases posteriores del ciclo de desarrollo se están ejecutando según lo planeado.</t>
+  </si>
+  <si>
+    <t>Se recomienda implementar los cambios sugeridos por el tutor cuando este presente inconformidad con los resultados actuales.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="19">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d-mmm-yy"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -576,6 +610,11 @@
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -810,7 +849,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -867,17 +906,14 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="12" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="11" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="7" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -888,40 +924,40 @@
     <xf borderId="13" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="7" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="12" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -933,7 +969,35 @@
     <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="16" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -942,56 +1006,41 @@
     <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="16" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="7" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,18 +1180,48 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="3">
-    <tableStyle count="3" pivot="0" name="MODELO LISTA DE COMPROBACION - -style">
+  <tableStyles count="9">
+    <tableStyle count="3" pivot="0" name="RF9 MinGO - Ver historial de pa-style">
       <tableStyleElement dxfId="6" type="headerRow"/>
       <tableStyleElement dxfId="7" type="firstRowStripe"/>
       <tableStyleElement dxfId="8" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="MODELO LISTA DE COMPROBACION - -style 2">
+    <tableStyle count="3" pivot="0" name="RF9 MinGO - Ver historial de pa-style 2">
       <tableStyleElement dxfId="9" type="headerRow"/>
       <tableStyleElement dxfId="10" type="firstRowStripe"/>
       <tableStyleElement dxfId="8" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="MODELO LISTA DE COMPROBACION - -style 3">
+    <tableStyle count="3" pivot="0" name="RF9 MinGO - Ver historial de pa-style 3">
+      <tableStyleElement dxfId="11" type="headerRow"/>
+      <tableStyleElement dxfId="12" type="firstRowStripe"/>
+      <tableStyleElement dxfId="8" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="RF4 MinGo - Enlazar clase-style">
+      <tableStyleElement dxfId="6" type="headerRow"/>
+      <tableStyleElement dxfId="7" type="firstRowStripe"/>
+      <tableStyleElement dxfId="8" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="RF4 MinGo - Enlazar clase-style 2">
+      <tableStyleElement dxfId="9" type="headerRow"/>
+      <tableStyleElement dxfId="10" type="firstRowStripe"/>
+      <tableStyleElement dxfId="8" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="RF4 MinGo - Enlazar clase-style 3">
+      <tableStyleElement dxfId="11" type="headerRow"/>
+      <tableStyleElement dxfId="12" type="firstRowStripe"/>
+      <tableStyleElement dxfId="8" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="RF10 MinGo - Descargar contenid-style">
+      <tableStyleElement dxfId="6" type="headerRow"/>
+      <tableStyleElement dxfId="7" type="firstRowStripe"/>
+      <tableStyleElement dxfId="8" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="RF10 MinGo - Descargar contenid-style 2">
+      <tableStyleElement dxfId="9" type="headerRow"/>
+      <tableStyleElement dxfId="10" type="firstRowStripe"/>
+      <tableStyleElement dxfId="8" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="RF10 MinGo - Descargar contenid-style 3">
       <tableStyleElement dxfId="11" type="headerRow"/>
       <tableStyleElement dxfId="12" type="firstRowStripe"/>
       <tableStyleElement dxfId="8" type="secondRowStripe"/>
@@ -1236,12 +1315,268 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'MODELO LISTA DE COMPROBACION - '!$B$41:$B$43</c:f>
+              <c:f>'RF9 MinGO - Ver historial de pa'!$B$41:$B$43</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'MODELO LISTA DE COMPROBACION - '!$C$41:$C$43</c:f>
+              <c:f>'RF9 MinGO - Ver historial de pa'!$C$41:$C$43</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>CRITERIO DE CALIDAD </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3094930008748907"/>
+          <c:y val="0.06018518518518518"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:perspective val="0"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C0504D"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9BBB59"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RF4 MinGo - Enlazar clase'!$B$41:$B$43</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RF4 MinGo - Enlazar clase'!$C$41:$C$43</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>CRITERIO DE CALIDAD </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3094930008748907"/>
+          <c:y val="0.06018518518518518"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:perspective val="0"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C0504D"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9BBB59"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RF10 MinGo - Descargar contenid'!$B$41:$B$43</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RF10 MinGo - Descargar contenid'!$C$41:$C$43</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1295,7 +1630,7 @@
     <xdr:ext cx="4286250" cy="2143125"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1068103339" name="Chart 1"/>
+        <xdr:cNvPr id="1727536780" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1314,6 +1649,74 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4286250" cy="2143125"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1068103339" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4286250" cy="2143125"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2115554580" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1325,7 +1728,7 @@
     <tableColumn name="SI" id="3"/>
     <tableColumn name="NO " id="4"/>
   </tableColumns>
-  <tableStyleInfo name="MODELO LISTA DE COMPROBACION - -style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="RF9 MinGO - Ver historial de pa-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -1337,7 +1740,7 @@
     <tableColumn name="SI" id="3"/>
     <tableColumn name="NO " id="4"/>
   </tableColumns>
-  <tableStyleInfo name="MODELO LISTA DE COMPROBACION - -style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="RF9 MinGO - Ver historial de pa-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -1349,7 +1752,79 @@
     <tableColumn name="SI" id="3"/>
     <tableColumn name="NO " id="4"/>
   </tableColumns>
-  <tableStyleInfo name="MODELO LISTA DE COMPROBACION - -style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="RF9 MinGO - Ver historial de pa-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:D16" displayName="Table_4" name="Table_4" id="4">
+  <tableColumns count="4">
+    <tableColumn name="No." id="1"/>
+    <tableColumn name="Pregunta" id="2"/>
+    <tableColumn name="SI" id="3"/>
+    <tableColumn name="NO " id="4"/>
+  </tableColumns>
+  <tableStyleInfo name="RF4 MinGo - Enlazar clase-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A21:D26" displayName="Table_5" name="Table_5" id="5">
+  <tableColumns count="4">
+    <tableColumn name="No." id="1"/>
+    <tableColumn name="Pregunta" id="2"/>
+    <tableColumn name="SI" id="3"/>
+    <tableColumn name="NO " id="4"/>
+  </tableColumns>
+  <tableStyleInfo name="RF4 MinGo - Enlazar clase-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A31:D34" displayName="Table_6" name="Table_6" id="6">
+  <tableColumns count="4">
+    <tableColumn name="No." id="1"/>
+    <tableColumn name="Pregunta" id="2"/>
+    <tableColumn name="SI" id="3"/>
+    <tableColumn name="NO " id="4"/>
+  </tableColumns>
+  <tableStyleInfo name="RF4 MinGo - Enlazar clase-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:D16" displayName="Table_7" name="Table_7" id="7">
+  <tableColumns count="4">
+    <tableColumn name="No." id="1"/>
+    <tableColumn name="Pregunta" id="2"/>
+    <tableColumn name="SI" id="3"/>
+    <tableColumn name="NO " id="4"/>
+  </tableColumns>
+  <tableStyleInfo name="RF10 MinGo - Descargar contenid-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A21:D26" displayName="Table_8" name="Table_8" id="8">
+  <tableColumns count="4">
+    <tableColumn name="No." id="1"/>
+    <tableColumn name="Pregunta" id="2"/>
+    <tableColumn name="SI" id="3"/>
+    <tableColumn name="NO " id="4"/>
+  </tableColumns>
+  <tableStyleInfo name="RF10 MinGo - Descargar contenid-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A31:D34" displayName="Table_9" name="Table_9" id="9">
+  <tableColumns count="4">
+    <tableColumn name="No." id="1"/>
+    <tableColumn name="Pregunta" id="2"/>
+    <tableColumn name="SI" id="3"/>
+    <tableColumn name="NO " id="4"/>
+  </tableColumns>
+  <tableStyleInfo name="RF10 MinGo - Descargar contenid-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -1693,7 +2168,9 @@
       <c r="H10" s="23">
         <v>1.0</v>
       </c>
-      <c r="I10" s="24"/>
+      <c r="I10" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="J10" s="19" t="s">
         <v>11</v>
       </c>
@@ -1702,10 +2179,10 @@
       </c>
     </row>
     <row r="11" ht="80.25" customHeight="1">
-      <c r="B11" s="25">
+      <c r="B11" s="24">
         <v>3.0</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="7"/>
@@ -1718,7 +2195,9 @@
       <c r="G11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="27"/>
+      <c r="I11" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="J11" s="19" t="s">
         <v>11</v>
       </c>
@@ -1727,35 +2206,37 @@
       </c>
     </row>
     <row r="12" ht="44.25" customHeight="1">
-      <c r="B12" s="25">
+      <c r="B12" s="24">
         <v>4.0</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>17</v>
+      <c r="C12" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="28" t="s">
+      <c r="G12" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="20" t="s">
         <v>19</v>
       </c>
+      <c r="J12" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="K12" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="53.25" customHeight="1">
-      <c r="B13" s="25">
+      <c r="B13" s="24">
         <v>5.0</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="7"/>
@@ -1768,7 +2249,9 @@
       <c r="G13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="29"/>
+      <c r="I13" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="J13" s="19" t="s">
         <v>11</v>
       </c>
@@ -1777,10 +2260,10 @@
       </c>
     </row>
     <row r="14" ht="63.75" customHeight="1">
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <v>6.0</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="7"/>
@@ -1790,142 +2273,157 @@
       <c r="F14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="28" t="s">
-        <v>19</v>
+      <c r="G14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>11</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="87.75" customHeight="1">
       <c r="B15" s="25">
         <v>7.0</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>24</v>
+      <c r="C15" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="29" t="s">
-        <v>25</v>
+      <c r="E15" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="108.0" customHeight="1">
-      <c r="B16" s="25">
+      <c r="B16" s="24">
         <v>8.0</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>26</v>
+      <c r="C16" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="28" t="s">
-        <v>19</v>
+      <c r="E16" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="F16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="29" t="s">
-        <v>28</v>
+      <c r="I16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="110.25" customHeight="1">
-      <c r="B17" s="25">
+      <c r="B17" s="24">
         <v>9.0</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>29</v>
+      <c r="C17" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="30" t="s">
-        <v>30</v>
+      <c r="F17" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="31"/>
+      <c r="I17" s="29" t="s">
+        <v>33</v>
+      </c>
       <c r="J17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="30" t="s">
-        <v>30</v>
+      <c r="K17" s="29" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="60.0" customHeight="1">
-      <c r="B18" s="25">
+      <c r="B18" s="24">
         <v>10.0</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>31</v>
+      <c r="C18" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="32" t="s">
-        <v>32</v>
+      <c r="F18" s="30" t="s">
+        <v>35</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="29"/>
+      <c r="I18" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="J18" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="32" t="s">
-        <v>32</v>
+      <c r="K18" s="30" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="60.75" customHeight="1">
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <v>11.0</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>33</v>
+      <c r="C19" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="29"/>
+      <c r="I19" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="J19" s="19" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="C20" s="1"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="C21" s="1"/>
@@ -3322,15 +3820,15 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId2" location="heading=h.ivfjjdaeky2n" ref="F18"/>
@@ -3359,457 +3857,1943 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="10.71"/>
     <col customWidth="1" min="2" max="2" width="34.57"/>
+    <col customWidth="1" min="3" max="3" width="20.0"/>
+    <col customWidth="1" min="4" max="4" width="28.14"/>
+    <col customWidth="1" min="5" max="24" width="10.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="51.0" customHeight="1">
+      <c r="A1" s="32"/>
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="B2" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="36">
+        <v>45949.0</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="B3" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="B4" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1"/>
+    <row r="6" ht="22.5" customHeight="1">
+      <c r="A6" s="38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="1">
+      <c r="A7" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="44"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="42">
+        <v>2.0</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="42">
+        <v>3.0</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="42">
+        <v>4.0</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="45"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="42">
+        <v>5.0</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="45"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="42">
+        <v>6.0</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="47"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="42">
+        <v>7.0</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="47"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="44">
+        <v>9.0</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="44"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="49">
+        <f>COUNTA('RF9 MinGO - Ver historial de pa'!$C$8:$C$16)</f>
+        <v>6</v>
+      </c>
+      <c r="D17" s="49">
+        <f>COUNTA('RF9 MinGO - Ver historial de pa'!$D$8:$D$16)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="50">
+        <f t="shared" ref="C18:D18" si="1">C17/9</f>
+        <v>0.6666666667</v>
+      </c>
+      <c r="D18" s="50">
+        <f t="shared" si="1"/>
+        <v>0.3333333333</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="49"/>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="47"/>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="42">
+        <v>2.0</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="47"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="42">
+        <v>3.0</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="47"/>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="42">
+        <v>4.0</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="47"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="58">
+        <v>5.0</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="60"/>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="49">
+        <f>COUNTA('RF9 MinGO - Ver historial de pa'!$C$22:$C$26)</f>
+        <v>5</v>
+      </c>
+      <c r="D27" s="49">
+        <f>COUNTA('RF9 MinGO - Ver historial de pa'!$D$22:$D$26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="50">
+        <f t="shared" ref="C28:D28" si="2">C27/5</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="49"/>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="A31" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="A32" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="57"/>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="42">
+        <v>2.0</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" s="58">
+        <v>3.0</v>
+      </c>
+      <c r="B34" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="57"/>
+    </row>
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="23">
+        <f>COUNTA('RF9 MinGO - Ver historial de pa'!$C$32:$C$34)</f>
+        <v>2</v>
+      </c>
+      <c r="D35" s="23">
+        <f>COUNTA('RF9 MinGO - Ver historial de pa'!$D$32:$D$34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="50">
+        <f t="shared" ref="C36:D36" si="3">C35/3</f>
+        <v>0.6666666667</v>
+      </c>
+      <c r="D36" s="50">
+        <f t="shared" si="3"/>
+        <v>0.3333333333</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" s="61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" ht="30.0" customHeight="1">
+      <c r="B41" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="62">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="42" ht="30.0" customHeight="1">
+      <c r="B42" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="49">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="43" ht="30.0" customHeight="1">
+      <c r="B43" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="62">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="C44" s="49"/>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="C45" s="49"/>
+    </row>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:D20"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A32:D34">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH(("X"),(A32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:D16 C22:C26 C32:D34">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH(("X"),(C8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:D16 C22:C26 C32:D34">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH(("X"),(C8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:D16 C22:C26 C32:D34">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH(("X"),(C8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:D16 C22:C26 C32:D34">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH(("X"),(C8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:D26">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH(("X"),(C22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:D26">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH(("X"),(C22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:D34">
+    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH(("X"),(C32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="10.71"/>
+    <col customWidth="1" min="2" max="2" width="34.57"/>
     <col customWidth="1" min="3" max="3" width="16.14"/>
     <col customWidth="1" min="4" max="24" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="51.0" customHeight="1">
-      <c r="A1" s="33"/>
-      <c r="B1" s="34" t="s">
+      <c r="A1" s="32"/>
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
+      <c r="C1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="B2" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="37">
-        <v>45777.0</v>
+      <c r="B2" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="63">
+        <v>45949.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>38</v>
+      <c r="B3" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>40</v>
+      <c r="B4" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="39" t="s">
-        <v>41</v>
+    <row r="6" ht="39.0" customHeight="1">
+      <c r="A6" s="38" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="41" t="s">
+      <c r="A7" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="B7" s="40" t="s">
         <v>45</v>
       </c>
+      <c r="C7" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="43">
+      <c r="A8" s="42">
         <v>1.0</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="47"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="42">
+        <v>2.0</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="42">
+        <v>3.0</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="42">
+        <v>4.0</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="47"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="42">
+        <v>5.0</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="47"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="42">
+        <v>6.0</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="47"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="42">
+        <v>7.0</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="47"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="58">
+        <v>9.0</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="57"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="49">
+        <f>COUNTA('RF4 MinGo - Enlazar clase'!$C$8:$C$16)</f>
+        <v>6</v>
+      </c>
+      <c r="D17" s="49">
+        <f>COUNTA('RF4 MinGo - Enlazar clase'!$D$8:$D$16)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="50">
+        <f t="shared" ref="C18:D18" si="1">C17/9</f>
+        <v>0.6666666667</v>
+      </c>
+      <c r="D18" s="50">
+        <f t="shared" si="1"/>
+        <v>0.3333333333</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="49"/>
+    </row>
+    <row r="20" ht="46.5" customHeight="1">
+      <c r="A20" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="D21" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="46"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="43">
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="47"/>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="42">
         <v>2.0</v>
       </c>
-      <c r="B9" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="46"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="43">
+      <c r="B23" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="47"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="42">
         <v>3.0</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B24" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="46"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="43">
+      <c r="D24" s="47"/>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="42">
         <v>4.0</v>
       </c>
-      <c r="B11" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="46"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="43">
+      <c r="B25" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="47"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="58">
         <v>5.0</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="46"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="43">
-        <v>6.0</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="46"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="43">
-        <v>7.0</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="46"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="43">
-        <v>8.0</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="46"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="47">
-        <v>9.0</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="51">
-        <f>COUNTA('MODELO LISTA DE COMPROBACION - '!$C$8:$C$16)</f>
-        <v>8</v>
-      </c>
-      <c r="D17" s="51">
-        <f>COUNTA('MODELO LISTA DE COMPROBACION - '!$D$8:$D$16)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="52">
-        <f t="shared" ref="C18:D18" si="1">C17/9</f>
-        <v>0.8888888889</v>
-      </c>
-      <c r="D18" s="52">
-        <f t="shared" si="1"/>
-        <v>0.1111111111</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="51"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="53" t="s">
+      <c r="B26" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="60"/>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="58" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="B22" s="44" t="s">
+      <c r="C27" s="49">
+        <f>COUNTA('RF4 MinGo - Enlazar clase'!$C$22:$C$26)</f>
+        <v>5</v>
+      </c>
+      <c r="D27" s="49">
+        <f>COUNTA('RF4 MinGo - Enlazar clase'!$D$22:$D$26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="46"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="46"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="46"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="43">
-        <v>4.0</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="46"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="47">
-        <v>5.0</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="59"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="51">
-        <f>COUNTA('MODELO LISTA DE COMPROBACION - '!$C$22:$C$26)</f>
-        <v>5</v>
-      </c>
-      <c r="D27" s="51">
-        <f>COUNTA('MODELO LISTA DE COMPROBACION - '!$D$22:$D$26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="52">
+      <c r="C28" s="50">
         <f t="shared" ref="C28:D28" si="2">C27/5</f>
         <v>1</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="51"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="39" t="s">
-        <v>64</v>
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="49"/>
+    </row>
+    <row r="30" ht="52.5" customHeight="1">
+      <c r="A30" s="38" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="57" t="s">
+      <c r="A31" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="B31" s="54" t="s">
         <v>45</v>
       </c>
+      <c r="C31" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="43">
+      <c r="A32" s="42">
         <v>1.0</v>
       </c>
-      <c r="B32" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="49"/>
+      <c r="B32" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="57"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="43">
+      <c r="A33" s="42">
         <v>2.0</v>
       </c>
-      <c r="B33" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="49"/>
+      <c r="B33" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="57"/>
+      <c r="D33" s="65" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="47">
+      <c r="A34" s="58">
         <v>3.0</v>
       </c>
-      <c r="B34" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="49"/>
+      <c r="B34" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="57"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="50" t="s">
-        <v>56</v>
+      <c r="A35" s="48" t="s">
+        <v>58</v>
       </c>
       <c r="C35" s="23">
-        <f>COUNTA('MODELO LISTA DE COMPROBACION - '!$C$32:$C$34)</f>
-        <v>3</v>
+        <f>COUNTA('RF4 MinGo - Enlazar clase'!$C$32:$C$34)</f>
+        <v>2</v>
       </c>
       <c r="D35" s="23">
-        <f>COUNTA('MODELO LISTA DE COMPROBACION - '!$D$32:$D$34)</f>
-        <v>0</v>
+        <f>COUNTA('RF4 MinGo - Enlazar clase'!$D$32:$D$34)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="52">
+      <c r="A36" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="50">
         <f t="shared" ref="C36:D36" si="3">C35/3</f>
-        <v>1</v>
-      </c>
-      <c r="D36" s="52">
+        <v>0.6666666667</v>
+      </c>
+      <c r="D36" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.3333333333</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1"/>
     <row r="38" ht="14.25" customHeight="1"/>
     <row r="39" ht="14.25" customHeight="1"/>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="60" t="s">
-        <v>68</v>
+      <c r="A40" s="61" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="41" ht="30.0" customHeight="1">
-      <c r="B41" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="51">
-        <v>89.0</v>
+      <c r="B41" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="62">
+        <v>67.0</v>
       </c>
     </row>
     <row r="42" ht="30.0" customHeight="1">
-      <c r="B42" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="51">
+      <c r="B42" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="49">
         <v>100.0</v>
       </c>
     </row>
     <row r="43" ht="30.0" customHeight="1">
-      <c r="B43" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="51">
-        <v>100.0</v>
+      <c r="B43" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="62">
+        <v>67.0</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="C44" s="51"/>
+      <c r="C44" s="49"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="C45" s="51"/>
+      <c r="C45" s="49"/>
     </row>
     <row r="46" ht="14.25" customHeight="1"/>
     <row r="47" ht="14.25" customHeight="1"/>
@@ -4836,7 +6820,1496 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="10.71"/>
+    <col customWidth="1" min="2" max="2" width="58.43"/>
+    <col customWidth="1" min="3" max="3" width="17.57"/>
+    <col customWidth="1" min="4" max="4" width="29.14"/>
+    <col customWidth="1" min="5" max="24" width="10.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="51.0" customHeight="1">
+      <c r="A1" s="32"/>
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="B2" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="63">
+        <v>45949.0</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="B3" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="B4" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1"/>
+    <row r="6" ht="39.0" customHeight="1">
+      <c r="A6" s="38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="1">
+      <c r="A7" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="47"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="42">
+        <v>2.0</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="42">
+        <v>3.0</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="42">
+        <v>4.0</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="47"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="42">
+        <v>5.0</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="47"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="42">
+        <v>6.0</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="47"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="42">
+        <v>7.0</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="47"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="58">
+        <v>9.0</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="57"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="49">
+        <f>COUNTA('RF10 MinGo - Descargar contenid'!$C$8:$C$16)</f>
+        <v>6</v>
+      </c>
+      <c r="D17" s="49">
+        <f>COUNTA('RF10 MinGo - Descargar contenid'!$D$8:$D$16)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="50">
+        <f t="shared" ref="C18:D18" si="1">C17/9</f>
+        <v>0.6666666667</v>
+      </c>
+      <c r="D18" s="50">
+        <f t="shared" si="1"/>
+        <v>0.3333333333</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="49"/>
+    </row>
+    <row r="20" ht="46.5" customHeight="1">
+      <c r="A20" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="47"/>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="42">
+        <v>2.0</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="47"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="42">
+        <v>3.0</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="47"/>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="42">
+        <v>4.0</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="47"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="58">
+        <v>5.0</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="60"/>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="49">
+        <f>COUNTA('RF10 MinGo - Descargar contenid'!$C$22:$C$26)</f>
+        <v>5</v>
+      </c>
+      <c r="D27" s="49">
+        <f>COUNTA('RF10 MinGo - Descargar contenid'!$D$22:$D$26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="50">
+        <f t="shared" ref="C28:D28" si="2">C27/5</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="49"/>
+    </row>
+    <row r="30" ht="52.5" customHeight="1">
+      <c r="A30" s="38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="A31" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="A32" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="57"/>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="42">
+        <v>2.0</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="57"/>
+      <c r="D33" s="65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" s="58">
+        <v>3.0</v>
+      </c>
+      <c r="B34" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="57"/>
+    </row>
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="23">
+        <f>COUNTA('RF10 MinGo - Descargar contenid'!$C$32:$C$34)</f>
+        <v>2</v>
+      </c>
+      <c r="D35" s="23">
+        <f>COUNTA('RF10 MinGo - Descargar contenid'!$D$32:$D$34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="50">
+        <f t="shared" ref="C36:D36" si="3">C35/3</f>
+        <v>0.6666666667</v>
+      </c>
+      <c r="D36" s="50">
+        <f t="shared" si="3"/>
+        <v>0.3333333333</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" s="61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" ht="30.0" customHeight="1">
+      <c r="B41" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="62">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="42" ht="30.0" customHeight="1">
+      <c r="B42" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="49">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="43" ht="30.0" customHeight="1">
+      <c r="B43" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="62">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="C44" s="49"/>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="C45" s="49"/>
+    </row>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:D20"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A32:D34">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH(("X"),(A32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:D16 C22:C26 C32:D34">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH(("X"),(C8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:D16 C22:C26 C32:D34">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH(("X"),(C8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:D16 C22:C26 C32:D34">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH(("X"),(C8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:D16 C22:C26 C32:D34">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH(("X"),(C8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:D26">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH(("X"),(C22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:D26">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH(("X"),(C22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:D34">
+    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH(("X"),(C32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
@@ -4852,44 +8325,39 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="61" t="s">
-        <v>71</v>
+      <c r="A1" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>73</v>
+      <c r="A2" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>75</v>
+      <c r="A3" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>77</v>
+      <c r="A4" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>79</v>
-      </c>
+      <c r="B5" s="31"/>
     </row>
     <row r="6" ht="14.25" customHeight="1"/>
     <row r="7" ht="14.25" customHeight="1"/>
@@ -5104,8 +8572,8 @@
     <row r="216" ht="14.25" customHeight="1"/>
     <row r="217" ht="14.25" customHeight="1"/>
     <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
     <row r="223" ht="15.75" customHeight="1"/>
@@ -5884,8 +9352,2094 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="54.14"/>
+    <col customWidth="1" min="2" max="2" width="57.29"/>
+    <col customWidth="1" min="3" max="6" width="10.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="14.25" customHeight="1"/>
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="54.14"/>
+    <col customWidth="1" min="2" max="2" width="57.29"/>
+    <col customWidth="1" min="3" max="6" width="10.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="B4" s="71"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="B5" s="31"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
